--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>10.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - A</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - C</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001146</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧瑾源灵活配置混合 - A</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001147</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧瑾源灵活配置混合 - C</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>18.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>762001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>国金国鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84.87</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002331</t>
+          <t>000594</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康安泰回报混合</t>
+          <t>大摩进取优选股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>29.64</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>001146</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>中欧瑾源灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>中欧瑾泉灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>001110</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>中欧瑾泉灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>001147</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>中欧瑾源灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>63.61</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009762</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国金国鑫灵活配置混合C</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1146,15 +1386,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>52.76</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>009762</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>国金国鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>64.30</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>762001</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国金国鑫灵活配置混合A</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,15 +1516,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.66</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.15</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>001184</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>易方达新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001184</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达新常态灵活配置混合</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2436,4 +2437,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2797,4 +2798,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.61</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.12</v>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.74</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3661,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3672,17 +3673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.82</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3708,14 +3751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.61</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3724,14 +3789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.12</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3740,14 +3827,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.74</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3756,13 +3865,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6934</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4554,7 +4555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,17 +4566,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4585,14 +4606,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.2</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4601,14 +4644,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.82</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4617,14 +4682,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.61</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4633,14 +4720,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.12</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4649,14 +4758,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.74</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4665,13 +4796,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>10.67</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>15.82</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>3.61</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>7.12</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.49</t>
+          <t>27.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>89.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2078</t>
+          <t>1.3210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012173</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>89.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0817</t>
+          <t>0.6274</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰大农业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0467</t>
+          <t>0.5613</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>0.5109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>0.3898</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001579</t>
+          <t>012173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰大农业股票</t>
+          <t>国泰兴泽优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7001</t>
+          <t>0.3742</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>012174</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>国泰兴泽优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6823</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5861</t>
+          <t>0.2598</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012174</t>
+          <t>013890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合C</t>
+          <t>国泰睿毅三年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4571</t>
+          <t>0.1876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1008,26 +1025,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4392</t>
+          <t>0.1844</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1549</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - A</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>申万菱信量化小盘股票（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>013891</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>国泰睿毅三年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013891</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合C</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008212</t>
+          <t>015588</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合C</t>
+          <t>国泰大农业股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015588</t>
+          <t>013918</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰大农业股票C</t>
+          <t>申万菱信量化小盘股票（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1378,6 +1393,784 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3123,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3483,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3919,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4431,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
+++ b/数据整理/stocks/A股/深证主板/000902-新洋丰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>4.91</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>10.67</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>15.82</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.61</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.12</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>11.74</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,1078 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1744,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.52</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.04</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3210</t>
+          <t>1.0785</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1782,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.04</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6274</t>
+          <t>0.5341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1820,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.4906</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +1858,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5109</t>
+          <t>0.4531</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1886,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>012173</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>国泰兴泽优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.27</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3898</t>
+          <t>0.3354</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1924,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012173</t>
+          <t>012174</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合A</t>
+          <t>国泰兴泽优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3742</t>
+          <t>0.2403</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1962,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012174</t>
+          <t>013890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合C</t>
+          <t>国泰睿毅三年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.1663</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2000,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.49</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2598</t>
+          <t>0.1536</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2038,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1876</t>
+          <t>0.0735</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2076,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>013891</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>国泰睿毅三年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1844</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2114,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>015588</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>国泰大农业股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +2152,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>519222</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>海富通欣益灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1129,262 +2190,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>519221</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘通利混合</t>
+          <t>海富通欣益灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013891</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰睿毅三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>015588</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰大农业股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>013918</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1459,26 +2294,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.49</t>
+          <t>27.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>89.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2078</t>
+          <t>1.3210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1487,36 +2322,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012173</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>89.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0817</t>
+          <t>0.6274</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1525,36 +2360,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰大农业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0467</t>
+          <t>0.5613</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1573,26 +2408,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>0.5109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1611,26 +2446,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>0.3898</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1639,32 +2474,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001579</t>
+          <t>012173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰大农业股票</t>
+          <t>国泰兴泽优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7001</t>
+          <t>0.3742</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1677,36 +2512,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>012174</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>国泰兴泽优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6823</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1725,26 +2560,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5861</t>
+          <t>0.2598</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1753,36 +2588,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012174</t>
+          <t>013890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰兴泽优选一年持有期混合C</t>
+          <t>国泰睿毅三年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4571</t>
+          <t>0.1876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1801,26 +2636,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4392</t>
+          <t>0.1844</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1829,36 +2664,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1549</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1867,36 +2702,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1905,36 +2740,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - A</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1943,36 +2778,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>申万菱信量化小盘股票（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1981,36 +2816,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>013891</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>国泰睿毅三年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2019,36 +2854,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧瑾泉灵活配置混合 - C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2057,36 +2892,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013891</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合C</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2095,36 +2930,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008212</t>
+          <t>015588</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合C</t>
+          <t>国泰大农业股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2133,36 +2968,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015588</t>
+          <t>013918</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰大农业股票C</t>
+          <t>申万菱信量化小盘股票（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2171,6 +3004,784 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3916,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4276,7 +5887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4712,7 +6323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5222,1048 +6833,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8437</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9758</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8989</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7801</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6770</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6372</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5469</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5043</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4551</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3596</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3060</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2925</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>762001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2658</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2266</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1578</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1310</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001146</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧瑾源灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001111</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧瑾泉灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001110</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧瑾泉灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001147</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中欧瑾源灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0795</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0775</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009762</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>